--- a/medicine/Enfance/Vincent_Starrett/Vincent_Starrett.xlsx
+++ b/medicine/Enfance/Vincent_Starrett/Vincent_Starrett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Starrett, né Charles Vincent Emerson Starrett le 26 octobre 1886 à Toronto, en Ontario, au Canada, et mort le 5 janvier 1974 à Chicago, dans l’Illinois, aux États-Unis, est un écrivain, critique littéraire et journaliste américain.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît à Toronto, au-dessus de la librairie de son grand-père[1], mais il passe son enfance à Chicago où sa famille déménage en 1889.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît à Toronto, au-dessus de la librairie de son grand-père, mais il passe son enfance à Chicago où sa famille déménage en 1889.
 Issu d'un milieu modeste, il fait sa scolarité dans des écoles publiques. En 1905, il décroche un emploi de journaliste au quotidien Chicago Inter Ocean, puis entre l'année suivante au service du Chicago Daily News. Pour ce dernier journal, il couvre les affaires criminelles, mais, de 1914 à 1915, il est correspondant de guerre au Mexique. Rédacteur en chef du magazine The Wave en 1921, il enseigne l'écriture l'année suivante à l'Université Northwestern.
 Il amorce sa carrière d'écrivain avec la publication de nouvelles policières mâtinées de fantastique dans des pulps, dont sa toute première, un pastiche de Sherlock Holmes intitulé L'Exemplaire unique (The Adventure of the Unique Hamlet, 1920). Le récit met le célèbre détective créé par Arthur Conan Doyle sur la piste d'un exemplaire unique de 1604 d'une pièce de William Shakespeare. La fascination de Starrett pour Sherlock Holmes le pousse à être l'un des cofondateurs, avec Christopher Morley, de la société littéraire des Baker Street Irregulars en 1934. L'année précédente, il avait publié The Private Life of Sherlock Holmes (1933), une vaste étude sur le locataire du 221B Baker Street.
 Entre 1929 et 1937, il fait paraître sept romans policiers, dont trois ont pour héros récurrent le détective amateur Walter Ghost. Le roman Le Crime de l'hôtel Granada (The Great Hotel Murder, 1935), où l'enquête est menée par Riley Blackwood, l'autre héros récurrent de Starrett, paraît d'abord en feuilleton sous le titre Recipe for Murder et, sous ce titre, est adapté au théâtre, avant de devenir en 1935 le film Meurtre au Grand Hôtel (The Great Hotel Murder) : l'acteur Edmund Lowe y incarne Riley Blackwood, rebaptisé Roger Blackwood pour les besoins de la production.
@@ -549,27 +563,213 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Walter Ghost
-Murder on B Deck (1929)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Walter Ghost</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Murder on B Deck (1929)
 Dead Man Inside (1931) Publié en français sous le titre Ici un mort, traduit par Perrine Vernay, Paris, Nouvelle Revue Critique, L'Empreinte no 23, 1933
-The End of Mr Garment (1932)
-Série Riley Blackwood
-The Great Hotel Murder (1935) (autre titre : Recipe for Murder) Publié en français sous le titre Le Crime de l'hôtel Granada, traduit par Simone Lechevrel, Paris, Nouvelle Revue Critique, L'Empreinte no 113, 1937 ; réédition, Paris, La Maîtrise du livre, L'Empreinte-Police no 13, 1947
-Midnight and Percy Jones (1938)
-Autres romans
-Seaports in the Moon: A Fantasia on Romantic Themes (1928)
-Laughing Buddha (1937) (autre titre : Murder in Peking en 1946) Publié en français sous le titre Meurtre à Pékin, traduit par Valentine Ishbel Johnston, Paris, Éditions Diderot, 1946
-Ouvrage de littérature d'enfance et de jeunesse
-The Great All-Star Animal League Ball Game (1958)
-Recueils de nouvelles
-The Unique Hamlet (1920)
+The End of Mr Garment (1932)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Riley Blackwood</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Great Hotel Murder (1935) (autre titre : Recipe for Murder) Publié en français sous le titre Le Crime de l'hôtel Granada, traduit par Simone Lechevrel, Paris, Nouvelle Revue Critique, L'Empreinte no 113, 1937 ; réédition, Paris, La Maîtrise du livre, L'Empreinte-Police no 13, 1947
+Midnight and Percy Jones (1938)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Seaports in the Moon: A Fantasia on Romantic Themes (1928)
+Laughing Buddha (1937) (autre titre : Murder in Peking en 1946) Publié en français sous le titre Meurtre à Pékin, traduit par Valentine Ishbel Johnston, Paris, Éditions Diderot, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Great All-Star Animal League Ball Game (1958)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Unique Hamlet (1920)
 Coffins for Two (1924)
 The Blue Door (1930)
 The Case Book of Jimmy Lavender (1944)
-The Quick and the Dead (1965)
-Nouvelles
-The Adventure of the Unique Hamlet (1920) Publié en français sous le titre L'Exemplaire unique, Paris, Fayard, Le Saint détective magazine no 119, janvier 1965 ; réédition dans l'anthologie Le Nouveau Musée de l'Holmes, Paris, NéO, 1989
+The Quick and the Dead (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Adventure of the Unique Hamlet (1920) Publié en français sous le titre L'Exemplaire unique, Paris, Fayard, Le Saint détective magazine no 119, janvier 1965 ; réédition dans l'anthologie Le Nouveau Musée de l'Holmes, Paris, NéO, 1989
 Open Window (1921)
 Penelope (1923)
 Riders in the Dark (1923)
@@ -597,9 +797,43 @@
 The Man in the Cask (1965)
 The Tattooed Man (1965)
 The Eleventh Juror (1969)
-The Evil Eye (2004), publication posthume
-Poésie
-Changeling (1922)
+The Evil Eye (2004), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Changeling (1922)
 Legend (1927)
 Cordelia's Song (1938) (autre titre The King in Yellow) (1938)
 Othello Time (1939)
@@ -618,9 +852,43 @@
 Two Horsemen (1949)
 Femme Fatale (1961)
 Romantic Episode (1961)
-The Death of Santa Claus (1961)
-Essais
-Arthur Machen: A Novelist of Ecstasy and Sin (1918)
+The Death of Santa Claus (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Arthur Machen: A Novelist of Ecstasy and Sin (1918)
 The Escape of Alice (1919)
 Ambrose Bierce (1920)
 Stephen Crane: A Bibliography (1923)
@@ -641,37 +909,73 @@
 Best Loved Books of the Twentieth Century (1955)
 Book Column (1958)
 Foreword (The Casebook of Solar Pons) (1965)
-Late, Later and Possibly Last: Essays (1973)
-Autobiographie
-Born in a Bookshop (1965)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vincent_Starrett</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Late, Later and Possibly Last: Essays (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Born in a Bookshop (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Starrett</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1927 : Wanted: A Coward, film américain réalisé par Roy Clements
 1935 : Meurtre au Grand Hôtel (The Great Hotel Murder), film américain réalisé par Eugene Forde d'après le roman éponyme, avec Edmund Lowe</t>
